--- a/Rayos X/rayosx_data1.xlsx
+++ b/Rayos X/rayosx_data1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uniandes-my.sharepoint.com/personal/j_guzmanm_uniandes_edu_co/Documents/Universidad/Sexto Semestre/Laboratorio Intermedio/LabIntermedio2024-2/Rayos X/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="16" documentId="13_ncr:1_{E6ABB4FD-438C-48DD-95F3-B586BFA405CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DB876AAD-BD92-46D6-B605-F1E0F100049F}"/>
+  <xr:revisionPtr revIDLastSave="21" documentId="13_ncr:1_{E6ABB4FD-438C-48DD-95F3-B586BFA405CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AF1850A9-D92C-4E90-B8D0-8A8F59A8AF30}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Actividad 1" sheetId="1" r:id="rId1"/>
@@ -15195,8 +15195,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:T14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="81" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView zoomScale="76" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="M12" sqref="M12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16021,11 +16021,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:N53"/>
   <sheetViews>
-    <sheetView zoomScale="79" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:B53"/>
+    <sheetView tabSelected="1" zoomScale="79" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="16.28515625" customWidth="1"/>
+    <col min="2" max="2" width="15.42578125" customWidth="1"/>
+    <col min="3" max="3" width="15.140625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
